--- a/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
+++ b/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27082840-4E75-497A-BBB3-82BA14454B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE4E04-726A-428D-A419-FF10A8E3DCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="生成模型" sheetId="21" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,18 +72,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A类账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B类账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA1,Case_AA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
   channelId: "A",
-  cardType: "A1",
-  cycleDay: 14,
   custormer: {
     familyName: "AUTO_TEST_1",
     firstName: "A",
@@ -95,72 +113,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开主卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开附属卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
+  cardType: "A",
   creditLimit: {
-    cachLimit: 200,
+    totalLimit: 1500,
+    cashLimit: 200,
     installmentLimit: 10000
   }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B类账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
+  cardType: "B",
   creditLimit: {
-    cachLimit: 1200,
+    totalLimit: 2500,
+    cashLimit: 1200,
     installmentLimit: 20000
   }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case_AA1,Case_AA2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建30%的A类账户和70%的B类账户。
-A类账户再细分为两种A1和A2, B类账户也存在细分情况。
+    <t>创建30%的A类账户和70%的B类账户， A类账户中再分成两种情况，其中10%为AA1，先创建一张主卡再创建一张附属卡，而剩下的90%的AA2则只创建一种主卡。
 继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
 模板：模板中可以使用前缀引导语法来动态生成属性
+是否串行：如果设置为true，则它的子用例会串行生成，比如生成开主卡的请求之后再生成一个开附属卡的请求
 输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Case_AA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-  productId: 345
+  cardStyle: 'AA1'
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
-  productId:456
+  channelId: "A",
+  custormer: {
+    familyName: "AUTO_TEST_1",
+    firstName: "B",
+    gender: 1,
+    idCard: "@uuid:16",
+  },
+  productId: 123,
+  mainCardNumber: "@var:cardNumber",
+  cardStyle: "AA12"
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,27 +311,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -330,31 +371,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,104 +712,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="20"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -810,11 +830,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -833,21 +853,21 @@
         <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="G8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="L8" s="4"/>
     </row>
@@ -859,18 +879,18 @@
         <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="G9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -882,60 +902,49 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A5:L5"/>
@@ -944,6 +953,17 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E926E-41D8-4C22-8F7C-C293D6791D2D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -964,118 +984,122 @@
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="22.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="20"/>
+      <c r="J1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="20"/>
+      <c r="J2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="19"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="21"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1096,11 +1120,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,46 +1140,44 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
@@ -1166,52 +1188,54 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
@@ -1221,13 +1245,8 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
+++ b/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFE4E04-726A-428D-A419-FF10A8E3DCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4981D82F-480F-44B9-B668-82CB14CD0E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="生成模型" sheetId="21" r:id="rId1"/>
     <sheet name="Case_AA1" sheetId="25" r:id="rId2"/>
+    <sheet name="Case_AA2" sheetId="26" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +174,20 @@
   mainCardNumber: "@var:cardNumber",
   cardStyle: "AA12"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  cardStyle: 'AA2'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,12 +329,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -329,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -343,33 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,104 +727,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -830,11 +845,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,11 +873,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -884,11 +899,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
@@ -902,49 +917,60 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A5:L5"/>
@@ -953,17 +979,6 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -974,7 +989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E926E-41D8-4C22-8F7C-C293D6791D2D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
@@ -994,10 +1009,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
@@ -1005,101 +1020,101 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="20">
         <v>10</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1120,11 +1135,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1148,11 +1163,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1172,11 +1187,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1188,52 +1203,45 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="C14:H14"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K1"/>
@@ -1247,6 +1255,168 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:H14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A74CB67-B579-47EE-9D97-B28C5C87201F}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="20">
+        <v>90</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
+++ b/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4981D82F-480F-44B9-B668-82CB14CD0E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D7805-14FB-4ED1-AFD1-0EA098755A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="生成模型" sheetId="21" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,12 +98,52 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开主卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开附属卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建30%的A类账户和70%的B类账户， A类账户中再分成两种情况，其中10%为AA1，先创建一张主卡再创建一张附属卡，而剩下的90%的AA2则只创建一种主卡。
+继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
+模板：模板中可以使用前缀引导语法来动态生成属性
+是否串行：如果设置为true，则它的子用例会串行生成，比如生成开主卡的请求之后再生成一个开附属卡的请求
+输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  cardStyle: 'AA1'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  cardStyle: 'AA2'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case_AA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{
   channelId: "A",
-  custormer: {
+  customer: {
     familyName: "AUTO_TEST_1",
     firstName: "A",
     gender: 1,
@@ -114,20 +154,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开主卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开附属卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   cardType: "A",
+  cycleDay: 3,
   creditLimit: {
     totalLimit: 1500,
     cashLimit: 200,
@@ -138,7 +167,15 @@
   </si>
   <si>
     <t>{
+mainCard: '@var:response'
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
   cardType: "B",
+  cycleDay: 5,
+  cardStyle: "B1",
   creditLimit: {
     totalLimit: 2500,
     cashLimit: 1200,
@@ -148,46 +185,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建30%的A类账户和70%的B类账户， A类账户中再分成两种情况，其中10%为AA1，先创建一张主卡再创建一张附属卡，而剩下的90%的AA2则只创建一种主卡。
-继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
-模板：模板中可以使用前缀引导语法来动态生成属性
-是否串行：如果设置为true，则它的子用例会串行生成，比如生成开主卡的请求之后再生成一个开附属卡的请求
-输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  cardStyle: 'AA1'
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   channelId: "A",
-  custormer: {
+  customer: {
     familyName: "AUTO_TEST_1",
     firstName: "B",
     gender: 1,
     idCard: "@uuid:16",
   },
   productId: 123,
-  mainCardNumber: "@var:cardNumber",
-  cardStyle: "AA12"
+  mainCardId: "@var:mainCard.id",
+  cardStyle: "AA12",
+  cardType: "sub",
+  cycleDay: "@var:mainCard.account.cycleDay",
+  creditLimit: {
+    totalLimit: 500,
+    cashLimit: 200,
+    installmentLimit: 0
+  }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  cardStyle: 'AA2'
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case_AA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,27 +345,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -358,33 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -709,7 +725,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,104 +743,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -845,11 +861,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -860,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -873,11 +889,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="G8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -886,7 +902,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -899,11 +915,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
@@ -917,60 +933,49 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A5:L5"/>
@@ -979,6 +984,17 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E926E-41D8-4C22-8F7C-C293D6791D2D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
@@ -999,20 +1015,20 @@
     <col min="2" max="2" width="8.5546875" customWidth="1"/>
     <col min="3" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="30.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="22.77734375" customWidth="1"/>
     <col min="12" max="12" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
@@ -1020,101 +1036,101 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="10">
         <v>10</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1135,11 +1151,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,23 +1174,25 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="169.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="206.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1182,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="G9" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1203,45 +1221,52 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:H14"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K1"/>
@@ -1255,13 +1280,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A74CB67-B579-47EE-9D97-B28C5C87201F}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:H9"/>
     </sheetView>
   </sheetViews>
@@ -1292,117 +1310,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="10">
         <v>90</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="18"/>
+      <c r="J2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="19"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A3:B3"/>
@@ -1410,13 +1435,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:K4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
+++ b/nop-cli/demo/_vfs/batch/create-card.batch-gen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D7805-14FB-4ED1-AFD1-0EA098755A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB5F23-7DD9-4508-B328-BFE312F39911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="生成模型" sheetId="21" r:id="rId1"/>
@@ -110,14 +110,6 @@
   </si>
   <si>
     <t>开附属卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建30%的A类账户和70%的B类账户， A类账户中再分成两种情况，其中10%为AA1，先创建一张主卡再创建一张附属卡，而剩下的90%的AA2则只创建一种主卡。
-继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
-模板：模板中可以使用前缀引导语法来动态生成属性
-是否串行：如果设置为true，则它的子用例会串行生成，比如生成开主卡的请求之后再生成一个开附属卡的请求
-输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +196,14 @@
     installmentLimit: 0
   }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建30%的A类账户和70%的B类账户， A类账户中再分成两种情况，其中1/3为AA1，先创建一张主卡再创建一张附属卡，而剩下的2/3的AA2则只创建一种主卡。
+继承父模板：表示将当前用例的数据模板和父用例的模板深度合并作为实际使用数据。
+模板：模板中可以使用前缀引导语法来动态生成属性
+是否串行：如果设置为true，则它的子用例会串行生成，比如生成开主卡的请求之后再生成一个开附属卡的请求
+输出变量：将当前环境中的变量输出到上下文环境中成为给定变量，后续生成用例时可以使用这些变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,12 +345,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -360,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -374,33 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,104 +743,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="175.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -861,11 +861,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,11 +889,11 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -915,11 +915,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
@@ -933,49 +933,60 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="A5:L5"/>
@@ -984,17 +995,6 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93E926E-41D8-4C22-8F7C-C293D6791D2D}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1025,10 +1025,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="27" t="s">
         <v>16</v>
       </c>
@@ -1036,101 +1036,101 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10">
-        <v>10</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="20">
+        <v>1</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1151,11 +1151,11 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1179,13 +1179,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+        <v>27</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1205,11 +1205,11 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
@@ -1221,52 +1221,45 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="19"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="C14:H14"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="J1:K1"/>
@@ -1280,6 +1273,13 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="C14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,7 +1291,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1310,117 +1310,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="28"/>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="10">
-        <v>90</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="20">
+        <v>2</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="112.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="A5:L5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:H1"/>
@@ -1428,13 +1435,6 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
